--- a/users_eqp.xlsx
+++ b/users_eqp.xlsx
@@ -20,24 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Ivanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivanov@mail.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergey Sidorov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sidorov@mail.ru</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">razumov@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игорь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Станислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evg@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Василий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vas@stnzn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виталий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vit@stnzn.ru</t>
   </si>
 </sst>
 </file>
@@ -117,8 +147,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,23 +287,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -273,7 +311,7 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -281,21 +319,67 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="ivanov@mail.ru"/>
-    <hyperlink ref="B3" r:id="rId2" display="sidorov@mail.ru"/>
+    <hyperlink ref="B1" r:id="rId1" display="razumov@stnzn.ru"/>
+    <hyperlink ref="B2" r:id="rId2" display="a@stnzn.ru"/>
+    <hyperlink ref="B3" r:id="rId3" display="i@stnzn.ru"/>
+    <hyperlink ref="B4" r:id="rId4" display="il@stnzn.ru"/>
+    <hyperlink ref="B5" r:id="rId5" display="st@stnzn.ru"/>
+    <hyperlink ref="B6" r:id="rId6" display="evg@stnzn.ru"/>
+    <hyperlink ref="B7" r:id="rId7" display="vas@stnzn.ru"/>
+    <hyperlink ref="B8" r:id="rId8" display="vit@stnzn.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>